--- a/name_mapping.xlsx
+++ b/name_mapping.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
   <si>
     <t>真琴</t>
   </si>
@@ -426,14 +426,18 @@
   </si>
   <si>
     <t>亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病娇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,16 +760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -782,7 +786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -793,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -804,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -815,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,7 +835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
@@ -853,7 +857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -864,9 +868,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -875,7 +879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -886,7 +890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,7 +901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -908,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -922,7 +926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -930,7 +934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -938,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -955,7 +959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -972,7 +976,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -989,7 +993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -997,7 +1001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1033,7 +1037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>77</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -1198,7 +1202,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>511</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
@@ -1293,7 +1297,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
@@ -1323,49 +1327,49 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>

--- a/name_mapping.xlsx
+++ b/name_mapping.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/name_mapping.xlsx
+++ b/name_mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>真琴</t>
   </si>
@@ -430,6 +430,18 @@
   </si>
   <si>
     <t>病娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1003,13 +1015,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1311,6 +1326,14 @@
       </c>
       <c r="B47" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/name_mapping.xlsx
+++ b/name_mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="121">
   <si>
     <t>真琴</t>
   </si>
@@ -443,6 +443,29 @@
   <si>
     <t>tp弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊驼</t>
   </si>
 </sst>
 </file>
@@ -770,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -990,7 +1013,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -1172,7 +1195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -1183,7 +1206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1199,8 +1222,11 @@
       <c r="E34" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -1217,7 +1243,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1231,7 +1257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1239,7 +1265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>511</v>
       </c>
@@ -1247,7 +1273,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -1266,7 +1292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1277,10 +1303,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>75</v>
       </c>
@@ -1288,7 +1317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1296,7 +1325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -1304,7 +1333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
@@ -1312,7 +1341,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
@@ -1320,7 +1349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>109</v>
       </c>
@@ -1328,12 +1357,28 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
